--- a/Assignment 2/Assignment2.xlsx
+++ b/Assignment 2/Assignment2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cstuser\ITCS-assignment2\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Software Developper</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>The labels shows what kind of data are represented and the charts just make a visual for these datas</t>
   </si>
 </sst>
 </file>
@@ -169,7 +172,7 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -181,9 +184,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -292,7 +292,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$21</c:f>
+              <c:f>Sheet1!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -313,7 +313,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$21</c:f>
+              <c:f>Sheet1!$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -334,7 +334,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$22</c:f>
+              <c:f>Sheet1!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -355,7 +355,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$22</c:f>
+              <c:f>Sheet1!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -376,7 +376,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$23</c:f>
+              <c:f>Sheet1!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -397,7 +397,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -692,7 +692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>Sheet1!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -713,7 +713,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -748,7 +748,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:f>Sheet1!$B$7:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
@@ -793,7 +793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
+              <c:f>Sheet1!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -814,7 +814,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -849,7 +849,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$J$7</c:f>
+              <c:f>Sheet1!$B$8:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
@@ -894,7 +894,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
+              <c:f>Sheet1!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -915,7 +915,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>Sheet1!$B$6:$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -950,7 +950,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$J$8</c:f>
+              <c:f>Sheet1!$B$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1269,7 +1269,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1290,7 +1290,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$J$13</c:f>
+              <c:f>Sheet1!$B$14:$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1325,7 +1325,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$14:$J$14</c:f>
+              <c:f>Sheet1!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1367,7 +1367,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$15</c:f>
+              <c:f>Sheet1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1388,7 +1388,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$J$13</c:f>
+              <c:f>Sheet1!$B$14:$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1423,7 +1423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$15:$J$15</c:f>
+              <c:f>Sheet1!$B$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1468,7 +1468,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
+              <c:f>Sheet1!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1489,7 +1489,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$13:$J$13</c:f>
+              <c:f>Sheet1!$B$14:$J$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1524,7 +1524,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$J$16</c:f>
+              <c:f>Sheet1!$B$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3400,13 +3400,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1476375</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>771525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3436,13 +3436,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3466,13 +3466,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3758,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3779,21 +3779,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -3829,146 +3822,146 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>49.04</v>
-      </c>
-      <c r="C6" s="1">
-        <v>38.36</v>
-      </c>
-      <c r="D6" s="2">
-        <v>41.35</v>
-      </c>
-      <c r="E6" s="1">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1">
-        <v>35.71</v>
-      </c>
-      <c r="H6" s="1">
-        <v>36.06</v>
-      </c>
-      <c r="I6" s="1">
-        <v>40.869999999999997</v>
-      </c>
-      <c r="J6" s="1">
-        <v>45.67</v>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>42.38</v>
+        <v>49.04</v>
       </c>
       <c r="C7" s="1">
-        <v>31.25</v>
-      </c>
-      <c r="D7" s="1">
-        <v>34.86</v>
+        <v>38.36</v>
+      </c>
+      <c r="D7" s="2">
+        <v>41.35</v>
       </c>
       <c r="E7" s="1">
-        <v>32.15</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1">
-        <v>32.15</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1">
-        <v>31.25</v>
+        <v>35.71</v>
       </c>
       <c r="H7" s="1">
-        <v>35</v>
+        <v>36.06</v>
       </c>
       <c r="I7" s="1">
-        <v>34.36</v>
+        <v>40.869999999999997</v>
       </c>
       <c r="J7" s="1">
-        <v>34.36</v>
+        <v>45.67</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42.38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>34.86</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32.15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>31.25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>34.36</v>
+      </c>
+      <c r="J8" s="1">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>28.85</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C9" s="1">
         <v>26.32</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D9" s="1">
         <v>24.1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G9" s="1">
         <v>22</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>26.72</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I9" s="1">
         <v>28</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J9" s="1">
         <v>28.57</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -4004,65 +3997,47 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
       <c r="K13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3">
-        <v>61</v>
-      </c>
-      <c r="C14" s="3">
-        <v>76</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>172</v>
-      </c>
-      <c r="J14" s="3">
-        <v>368</v>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
       </c>
       <c r="K14" s="3">
         <v>717</v>
@@ -4070,34 +4045,32 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>61</v>
+      </c>
+      <c r="C15" s="3">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
-        <v>14</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>2</v>
       </c>
-      <c r="H15" s="4">
-        <v>5</v>
-      </c>
-      <c r="I15" s="4">
-        <v>58</v>
-      </c>
-      <c r="J15" s="4">
-        <v>53</v>
+      <c r="H15" s="3">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>172</v>
+      </c>
+      <c r="J15" s="3">
+        <v>368</v>
       </c>
       <c r="K15" s="4">
         <v>143</v>
@@ -4105,149 +4078,181 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
         <v>11</v>
       </c>
-      <c r="B16">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>46</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="4">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>147</v>
-      </c>
-      <c r="J16">
-        <v>98</v>
+      <c r="F16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>58</v>
+      </c>
+      <c r="J16" s="4">
+        <v>53</v>
       </c>
       <c r="K16">
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>147</v>
+      </c>
+      <c r="J17">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>50</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>16</v>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>17</v>
+      <c r="A40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="A9:J12"/>
-    <mergeCell ref="A17:J20"/>
+    <mergeCell ref="A2:J5"/>
+    <mergeCell ref="A10:J13"/>
+    <mergeCell ref="A18:J21"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A40" r:id="rId1"/>
-    <hyperlink ref="A41" r:id="rId2"/>
-    <hyperlink ref="A42" r:id="rId3"/>
-    <hyperlink ref="A43" r:id="rId4"/>
+    <hyperlink ref="A41" r:id="rId1"/>
+    <hyperlink ref="A42" r:id="rId2"/>
+    <hyperlink ref="A43" r:id="rId3"/>
+    <hyperlink ref="A44" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
